--- a/posesiones/1486003.xlsx
+++ b/posesiones/1486003.xlsx
@@ -1880,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>24</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>16</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>38</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>12</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>22</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>18</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25">
         <v>23</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>19</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <v>20</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>16</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R36">
         <v>15</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R42">
         <v>23</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R46">
         <v>26</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47">
         <v>17</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>21</v>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R50">
         <v>22</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R52">
         <v>6</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R53">
         <v>11</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>4</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R57">
         <v>18</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R59">
         <v>23</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R62">
         <v>26</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R64">
         <v>8</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>9</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>21</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>15</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5891,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R84">
         <v>12</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R86">
         <v>9</v>
@@ -6044,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>23</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>22</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R95">
         <v>17</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R104">
         <v>19</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6982,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R106">
         <v>14</v>
@@ -7026,10 +7026,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7070,10 +7070,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R111">
         <v>14</v>
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R112">
         <v>17</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7470,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R116">
         <v>20</v>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R118">
         <v>12</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7814,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R123">
         <v>27</v>
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R124">
         <v>10</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7967,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R126">
         <v>15</v>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R128">
         <v>7</v>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R133">
         <v>20</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8408,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R135">
         <v>5</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8652,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R140">
         <v>13</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8846,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R144">
         <v>14</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8990,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R150">
         <v>28</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R154">
         <v>23</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9437,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R156">
         <v>16</v>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9584,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R159">
         <v>25</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9825,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R164">
         <v>20</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R165">
         <v>17</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R172">
         <v>21</v>
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10363,7 +10363,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R175">
         <v>13</v>
@@ -10413,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10557,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R179">
         <v>21</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R183">
         <v>20</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R185">
         <v>10</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R189">
         <v>0</v>
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11151,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R191">
         <v>16</v>
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11248,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -11442,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11542,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R199">
         <v>34</v>
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11642,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R201">
         <v>20</v>
@@ -11695,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R202">
         <v>22</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11795,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R204">
         <v>19</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11895,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11992,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12136,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R211">
         <v>19</v>
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12239,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R213">
         <v>17</v>
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12433,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R217">
         <v>21</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12533,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R219">
         <v>15</v>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R221">
         <v>24</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12783,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R224">
         <v>2</v>
@@ -12827,10 +12827,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13018,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13153,10 +13153,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13206,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R233">
         <v>11</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R235">
         <v>12</v>
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13409,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R237">
         <v>6</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13509,7 +13509,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R239">
         <v>21</v>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13606,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13703,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R243">
         <v>11</v>
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13903,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R247">
         <v>23</v>
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14006,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R249">
         <v>12</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R251">
         <v>27</v>
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14253,7 +14253,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R254">
         <v>19</v>
@@ -14306,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14541,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14588,7 +14588,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14735,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R264">
         <v>29</v>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14835,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14882,7 +14882,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14932,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R268">
         <v>23</v>
@@ -14982,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15032,7 +15032,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R270">
         <v>22</v>
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R272">
         <v>15</v>
@@ -15185,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15232,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15326,7 +15326,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15376,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R277">
         <v>13</v>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15664,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R283">
         <v>21</v>
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R285">
         <v>6</v>
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R286">
         <v>20</v>
@@ -15864,7 +15864,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15914,7 +15914,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R288">
         <v>21</v>
@@ -15964,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R291">
         <v>29</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16164,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R293">
         <v>10</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16264,7 +16264,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R295">
         <v>17</v>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16367,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R297">
         <v>23</v>
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16470,7 +16470,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R299">
         <v>17</v>
@@ -16523,7 +16523,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R300">
         <v>23</v>
@@ -16576,7 +16576,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16670,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16717,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16764,7 +16764,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16814,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R306">
         <v>18</v>
@@ -16867,7 +16867,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R307">
         <v>25</v>
@@ -16920,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16970,7 +16970,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R309">
         <v>8</v>
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17073,7 +17073,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R311">
         <v>22</v>
@@ -17123,7 +17123,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17173,7 +17173,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R313">
         <v>5</v>
@@ -17226,7 +17226,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R314">
         <v>17</v>
@@ -17279,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17329,7 +17329,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R316">
         <v>24</v>
@@ -17382,7 +17382,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17432,7 +17432,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R318">
         <v>15</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17535,7 +17535,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R320">
         <v>7</v>
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17638,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R322">
         <v>24</v>
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17741,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R324">
         <v>1</v>
@@ -17785,10 +17785,10 @@
         <v>1</v>
       </c>
       <c r="P325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17829,10 +17829,10 @@
         <v>1</v>
       </c>
       <c r="P326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q326">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17976,7 +17976,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R329">
         <v>26</v>
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18076,7 +18076,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18123,7 +18123,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18173,7 +18173,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R333">
         <v>31</v>
@@ -18223,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18270,7 +18270,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18317,7 +18317,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18364,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18414,7 +18414,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R338">
         <v>0</v>
@@ -18467,7 +18467,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R339">
         <v>18</v>
@@ -18520,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18567,7 +18567,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18667,7 +18667,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R343">
         <v>25</v>
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18761,7 +18761,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18808,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18858,7 +18858,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18905,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18955,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19005,7 +19005,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R350">
         <v>37</v>
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19155,7 +19155,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19205,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R354">
         <v>17</v>
@@ -19258,7 +19258,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R355">
         <v>19</v>
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19358,7 +19358,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19405,7 +19405,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19452,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19499,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19546,7 +19546,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19643,7 +19643,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R363">
         <v>8</v>
@@ -19693,7 +19693,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19743,7 +19743,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19793,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R366">
         <v>19</v>
@@ -19846,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19896,7 +19896,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R368">
         <v>15</v>
@@ -19946,7 +19946,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19996,7 +19996,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R370">
         <v>27</v>
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20099,7 +20099,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R372">
         <v>19</v>
@@ -20152,7 +20152,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20293,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20387,7 +20387,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20437,7 +20437,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20484,7 +20484,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20531,7 +20531,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20578,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20628,7 +20628,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R383">
         <v>16</v>
@@ -20681,7 +20681,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R384">
         <v>20</v>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20781,7 +20781,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R386">
         <v>14</v>
@@ -20831,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20881,7 +20881,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20931,7 +20931,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R389">
         <v>6</v>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21025,7 +21025,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21119,7 +21119,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21166,7 +21166,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21216,7 +21216,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21360,7 +21360,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R398">
         <v>22</v>
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21463,7 +21463,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R400">
         <v>20</v>
@@ -21516,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21566,7 +21566,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R402">
         <v>10</v>
@@ -21619,7 +21619,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21669,7 +21669,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R404">
         <v>13</v>
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21766,7 +21766,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21910,7 +21910,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R409">
         <v>9</v>
@@ -21963,7 +21963,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R410">
         <v>14</v>
@@ -22013,7 +22013,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22113,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R413">
         <v>29</v>
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22257,7 +22257,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22304,7 +22304,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22354,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22404,7 +22404,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R419">
         <v>19</v>
@@ -22457,7 +22457,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R420">
         <v>10</v>
@@ -22510,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22657,7 +22657,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R424">
         <v>33</v>
@@ -22710,7 +22710,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R425">
         <v>10</v>
@@ -22763,7 +22763,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22813,7 +22813,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R427">
         <v>17</v>
@@ -22866,7 +22866,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22916,7 +22916,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R429">
         <v>8</v>
@@ -22966,7 +22966,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23013,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23060,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23107,7 +23107,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23154,7 +23154,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23201,7 +23201,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23248,7 +23248,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23295,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23345,7 +23345,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R438">
         <v>12</v>
@@ -23398,7 +23398,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23448,7 +23448,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R440">
         <v>7</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23589,7 +23589,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23683,7 +23683,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23733,7 +23733,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R446">
         <v>7</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23830,7 +23830,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23880,7 +23880,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R449">
         <v>0</v>
@@ -23930,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23980,7 +23980,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R451">
         <v>0</v>
@@ -24030,7 +24030,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24080,7 +24080,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R453">
         <v>13</v>
@@ -24136,7 +24136,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R454">
         <v>3</v>
@@ -24180,10 +24180,10 @@
         <v>1</v>
       </c>
       <c r="P455" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q455">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
